--- a/tests/Data/Disks/Local/from-query-store-without-eloquent.xlsx
+++ b/tests/Data/Disks/Local/from-query-store-without-eloquent.xlsx
@@ -17,304 +17,304 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
   <si>
-    <t>Alexie Leffler</t>
-  </si>
-  <si>
-    <t>Arlie Reichert MD</t>
-  </si>
-  <si>
-    <t>Geovanny Boyle</t>
-  </si>
-  <si>
-    <t>Collin Predovic</t>
-  </si>
-  <si>
-    <t>Lulu Schaden</t>
-  </si>
-  <si>
-    <t>Ms. Deborah Kling</t>
-  </si>
-  <si>
-    <t>Berry Larkin</t>
-  </si>
-  <si>
-    <t>Olga Larkin</t>
-  </si>
-  <si>
-    <t>Luz Smitham</t>
-  </si>
-  <si>
-    <t>Prof. Dion Kuvalis MD</t>
-  </si>
-  <si>
-    <t>Dr. Sheila Altenwerth</t>
-  </si>
-  <si>
-    <t>Raoul Weimann</t>
-  </si>
-  <si>
-    <t>Dr. Sandra Brakus I</t>
-  </si>
-  <si>
-    <t>Marvin Hyatt Jr.</t>
-  </si>
-  <si>
-    <t>Cristina McKenzie</t>
-  </si>
-  <si>
-    <t>Keanu Barrows</t>
-  </si>
-  <si>
-    <t>Cassie Abernathy</t>
-  </si>
-  <si>
-    <t>Mr. Adolfo Haley</t>
-  </si>
-  <si>
-    <t>Prof. Anna Gibson V</t>
-  </si>
-  <si>
-    <t>Prof. Barton Mraz</t>
-  </si>
-  <si>
-    <t>Barton Wunsch</t>
-  </si>
-  <si>
-    <t>Cristian Pacocha III</t>
-  </si>
-  <si>
-    <t>Hallie Wehner</t>
-  </si>
-  <si>
-    <t>Dr. Mireille Casper DVM</t>
-  </si>
-  <si>
-    <t>Anne Ondricka</t>
-  </si>
-  <si>
-    <t>Mrs. Drew Collier MD</t>
-  </si>
-  <si>
-    <t>Karson Hand</t>
-  </si>
-  <si>
-    <t>Elfrieda Corwin III</t>
-  </si>
-  <si>
-    <t>Rebekah Grady</t>
-  </si>
-  <si>
-    <t>Bria Funk V</t>
-  </si>
-  <si>
-    <t>Gia Rippin</t>
-  </si>
-  <si>
-    <t>Candido Crooks</t>
-  </si>
-  <si>
-    <t>D'angelo Prosacco</t>
-  </si>
-  <si>
-    <t>Mr. Angelo Hilpert</t>
-  </si>
-  <si>
-    <t>Douglas Huel</t>
-  </si>
-  <si>
-    <t>Elenor Schoen</t>
-  </si>
-  <si>
-    <t>Mr. Keanu Davis III</t>
-  </si>
-  <si>
-    <t>Miss Catherine Koepp Jr.</t>
-  </si>
-  <si>
-    <t>Loyce Friesen</t>
-  </si>
-  <si>
-    <t>Janie Gerlach Jr.</t>
-  </si>
-  <si>
-    <t>Angeline McDermott</t>
-  </si>
-  <si>
-    <t>Jeffry Bauch</t>
-  </si>
-  <si>
-    <t>Prof. Paula Wisoky</t>
-  </si>
-  <si>
-    <t>Gillian Rohan</t>
-  </si>
-  <si>
-    <t>Prof. Marcelo Cummings PhD</t>
-  </si>
-  <si>
-    <t>Nolan Hane</t>
-  </si>
-  <si>
-    <t>Dorcas Tromp</t>
-  </si>
-  <si>
-    <t>Delores Ortiz DDS</t>
-  </si>
-  <si>
-    <t>Pansy O'Connell</t>
-  </si>
-  <si>
-    <t>Garrett Kunze I</t>
-  </si>
-  <si>
-    <t>Lonie Wisozk III</t>
-  </si>
-  <si>
-    <t>Beatrice Mills Jr.</t>
-  </si>
-  <si>
-    <t>Lottie Conn</t>
-  </si>
-  <si>
-    <t>Clifford Kohler</t>
-  </si>
-  <si>
-    <t>Peggie Wilderman</t>
-  </si>
-  <si>
-    <t>Lia Purdy I</t>
-  </si>
-  <si>
-    <t>Annetta Koepp</t>
-  </si>
-  <si>
-    <t>Juliana Konopelski</t>
-  </si>
-  <si>
-    <t>Norma Ankunding</t>
-  </si>
-  <si>
-    <t>Mrs. Ana Shields III</t>
-  </si>
-  <si>
-    <t>Jaden Kulas</t>
-  </si>
-  <si>
-    <t>Abby Waelchi</t>
-  </si>
-  <si>
-    <t>Mr. Tatum Deckow IV</t>
-  </si>
-  <si>
-    <t>Ms. Jacky Cormier</t>
-  </si>
-  <si>
-    <t>Juston Lebsack I</t>
-  </si>
-  <si>
-    <t>Noemy Terry</t>
-  </si>
-  <si>
-    <t>Kobe Bernier</t>
-  </si>
-  <si>
-    <t>Anastasia Maggio</t>
-  </si>
-  <si>
-    <t>Dr. Shanelle Spinka</t>
-  </si>
-  <si>
-    <t>Mckenzie Brekke</t>
-  </si>
-  <si>
-    <t>Adelle Baumbach</t>
-  </si>
-  <si>
-    <t>Dr. Layne Bogan DDS</t>
-  </si>
-  <si>
-    <t>Dr. Jarrett Dooley</t>
-  </si>
-  <si>
-    <t>Alexandrea Cremin</t>
-  </si>
-  <si>
-    <t>Prof. Bertha Volkman V</t>
-  </si>
-  <si>
-    <t>Miss Rosalee Stark I</t>
-  </si>
-  <si>
-    <t>Hettie Parker</t>
-  </si>
-  <si>
-    <t>Meaghan Mueller</t>
-  </si>
-  <si>
-    <t>Esmeralda O'Reilly</t>
-  </si>
-  <si>
-    <t>Miss Esta Strosin II</t>
-  </si>
-  <si>
-    <t>Penelope Kertzmann</t>
-  </si>
-  <si>
-    <t>Kim Ryan</t>
-  </si>
-  <si>
-    <t>Dr. Ethelyn Funk</t>
-  </si>
-  <si>
-    <t>Ona Yundt</t>
-  </si>
-  <si>
-    <t>Lily Ernser</t>
-  </si>
-  <si>
-    <t>Casimer Windler</t>
-  </si>
-  <si>
-    <t>Ms. Meaghan Kovacek DDS</t>
-  </si>
-  <si>
-    <t>Gust Nikolaus</t>
-  </si>
-  <si>
-    <t>Cheyenne Kunze</t>
-  </si>
-  <si>
-    <t>Miss Jermaine Batz DDS</t>
-  </si>
-  <si>
-    <t>Dr. Monserrat Gleason</t>
-  </si>
-  <si>
-    <t>Kacey Considine II</t>
-  </si>
-  <si>
-    <t>Mallie Walker II</t>
-  </si>
-  <si>
-    <t>Roberta Stokes</t>
-  </si>
-  <si>
-    <t>Leonie Kling PhD</t>
-  </si>
-  <si>
-    <t>Jade Mills</t>
-  </si>
-  <si>
-    <t>Emmet Rosenbaum</t>
-  </si>
-  <si>
-    <t>Lexie Kunde</t>
-  </si>
-  <si>
-    <t>Sydnie Effertz DDS</t>
-  </si>
-  <si>
-    <t>Faye Bechtelar</t>
+    <t>Dovie Quigley</t>
+  </si>
+  <si>
+    <t>Walker Ondricka I</t>
+  </si>
+  <si>
+    <t>Bella Bruen DVM</t>
+  </si>
+  <si>
+    <t>Dagmar Gerhold</t>
+  </si>
+  <si>
+    <t>Mr. Dennis Williamson I</t>
+  </si>
+  <si>
+    <t>John Grant</t>
+  </si>
+  <si>
+    <t>Miss Raquel Block PhD</t>
+  </si>
+  <si>
+    <t>Kevon Kihn</t>
+  </si>
+  <si>
+    <t>Eda Rau</t>
+  </si>
+  <si>
+    <t>Chelsie Bernhard</t>
+  </si>
+  <si>
+    <t>Dr. Andy Romaguera PhD</t>
+  </si>
+  <si>
+    <t>Antone Herman Sr.</t>
+  </si>
+  <si>
+    <t>Hayden Huel</t>
+  </si>
+  <si>
+    <t>Jamaal White</t>
+  </si>
+  <si>
+    <t>Mr. Wilmer Quitzon</t>
+  </si>
+  <si>
+    <t>Regan Herman</t>
+  </si>
+  <si>
+    <t>Teresa Beahan</t>
+  </si>
+  <si>
+    <t>Miss Adela Von</t>
+  </si>
+  <si>
+    <t>Dariana Torp</t>
+  </si>
+  <si>
+    <t>Ned Davis</t>
+  </si>
+  <si>
+    <t>Dr. Jaydon Adams MD</t>
+  </si>
+  <si>
+    <t>Layla Hauck</t>
+  </si>
+  <si>
+    <t>Nelle Nicolas</t>
+  </si>
+  <si>
+    <t>Jordyn Vandervort</t>
+  </si>
+  <si>
+    <t>Lily McClure</t>
+  </si>
+  <si>
+    <t>Sabina Johnson</t>
+  </si>
+  <si>
+    <t>Rhiannon Strosin</t>
+  </si>
+  <si>
+    <t>Miss Jammie Botsford Sr.</t>
+  </si>
+  <si>
+    <t>Jed Dickens</t>
+  </si>
+  <si>
+    <t>Jaclyn Rath</t>
+  </si>
+  <si>
+    <t>Grant Durgan DDS</t>
+  </si>
+  <si>
+    <t>Otis Rempel</t>
+  </si>
+  <si>
+    <t>Mrs. Taryn Leuschke I</t>
+  </si>
+  <si>
+    <t>Prof. Joy Runolfsdottir I</t>
+  </si>
+  <si>
+    <t>Prof. Henry Boyle I</t>
+  </si>
+  <si>
+    <t>Christophe Cormier</t>
+  </si>
+  <si>
+    <t>Wilfredo Hackett</t>
+  </si>
+  <si>
+    <t>Camilla Hagenes</t>
+  </si>
+  <si>
+    <t>Edgar Medhurst II</t>
+  </si>
+  <si>
+    <t>Vincenzo Bode MD</t>
+  </si>
+  <si>
+    <t>Alexandria Bashirian</t>
+  </si>
+  <si>
+    <t>Dr. Scottie Jast</t>
+  </si>
+  <si>
+    <t>Mr. Kieran Schulist</t>
+  </si>
+  <si>
+    <t>Dianna Leffler DDS</t>
+  </si>
+  <si>
+    <t>Donald Johns</t>
+  </si>
+  <si>
+    <t>Claude Hodkiewicz</t>
+  </si>
+  <si>
+    <t>Allan Hammes</t>
+  </si>
+  <si>
+    <t>Rocio Olson</t>
+  </si>
+  <si>
+    <t>Prof. Allen Swaniawski DVM</t>
+  </si>
+  <si>
+    <t>Nora West</t>
+  </si>
+  <si>
+    <t>Kaelyn Homenick</t>
+  </si>
+  <si>
+    <t>Miss Lillian Gulgowski DVM</t>
+  </si>
+  <si>
+    <t>Magali Metz II</t>
+  </si>
+  <si>
+    <t>Dr. Emery Torp</t>
+  </si>
+  <si>
+    <t>Kaycee Gulgowski</t>
+  </si>
+  <si>
+    <t>London Howell</t>
+  </si>
+  <si>
+    <t>Augustine Bogisich</t>
+  </si>
+  <si>
+    <t>Prof. Adrian Miller Sr.</t>
+  </si>
+  <si>
+    <t>Darius Schroeder II</t>
+  </si>
+  <si>
+    <t>Gracie Heathcote IV</t>
+  </si>
+  <si>
+    <t>Dr. Rebekah Marks</t>
+  </si>
+  <si>
+    <t>Margarett O'Connell</t>
+  </si>
+  <si>
+    <t>Raymond Turcotte</t>
+  </si>
+  <si>
+    <t>Edgardo Schmeler</t>
+  </si>
+  <si>
+    <t>Morton Skiles I</t>
+  </si>
+  <si>
+    <t>Cameron Mosciski</t>
+  </si>
+  <si>
+    <t>Cristobal Waelchi II</t>
+  </si>
+  <si>
+    <t>Ahmed Feeney III</t>
+  </si>
+  <si>
+    <t>Patrick Medhurst</t>
+  </si>
+  <si>
+    <t>Prof. Elenor Ankunding</t>
+  </si>
+  <si>
+    <t>Belle Hyatt</t>
+  </si>
+  <si>
+    <t>Miss Syble Prohaska DVM</t>
+  </si>
+  <si>
+    <t>Jammie Pagac</t>
+  </si>
+  <si>
+    <t>Mrs. Maci Donnelly I</t>
+  </si>
+  <si>
+    <t>Carissa Haley IV</t>
+  </si>
+  <si>
+    <t>Josefina Schamberger</t>
+  </si>
+  <si>
+    <t>Sonny Kohler V</t>
+  </si>
+  <si>
+    <t>Ella Hintz</t>
+  </si>
+  <si>
+    <t>Lorena Erdman</t>
+  </si>
+  <si>
+    <t>Gerry Pollich</t>
+  </si>
+  <si>
+    <t>Dr. Gerard Gerlach</t>
+  </si>
+  <si>
+    <t>Laney Bayer MD</t>
+  </si>
+  <si>
+    <t>Kenton Blanda</t>
+  </si>
+  <si>
+    <t>Berenice Hammes</t>
+  </si>
+  <si>
+    <t>Dillon Kerluke DDS</t>
+  </si>
+  <si>
+    <t>Elise Dare</t>
+  </si>
+  <si>
+    <t>Cade Rowe</t>
+  </si>
+  <si>
+    <t>Johann Mraz II</t>
+  </si>
+  <si>
+    <t>Hilda Schuppe</t>
+  </si>
+  <si>
+    <t>Ted Wilderman</t>
+  </si>
+  <si>
+    <t>Owen Rice</t>
+  </si>
+  <si>
+    <t>Hassan Boyer</t>
+  </si>
+  <si>
+    <t>Shawna Rempel</t>
+  </si>
+  <si>
+    <t>Alysa Luettgen II</t>
+  </si>
+  <si>
+    <t>Bernita Reichel</t>
+  </si>
+  <si>
+    <t>Mario Lubowitz</t>
+  </si>
+  <si>
+    <t>Will Blanda</t>
+  </si>
+  <si>
+    <t>Molly Armstrong Jr.</t>
+  </si>
+  <si>
+    <t>Dennis Marvin</t>
+  </si>
+  <si>
+    <t>Mr. Quinton Labadie III</t>
   </si>
 </sst>
 </file>
